--- a/Jadwal Praktikum PBAF Eresto Usakti TIF Genap 2022.xlsx
+++ b/Jadwal Praktikum PBAF Eresto Usakti TIF Genap 2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Random Aslab\PBAF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C295E1A-C5F7-48EA-8379-A7CF6CC43C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B7EEF7-7296-4A4B-A63C-DBDA51023E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="56">
   <si>
     <t>PBAF Schedule</t>
   </si>
@@ -163,28 +163,31 @@
     <t xml:space="preserve"> : Proses Bisnis Accounting &amp; Finance</t>
   </si>
   <si>
-    <t>View</t>
-  </si>
-  <si>
     <t>Strategi</t>
   </si>
   <si>
     <t>Business</t>
   </si>
   <si>
-    <t>Aplication</t>
-  </si>
-  <si>
-    <t>Technology</t>
-  </si>
-  <si>
-    <t>Peluang Solusi</t>
-  </si>
-  <si>
-    <t>Migrasi Planning</t>
-  </si>
-  <si>
     <t>Implementasi</t>
+  </si>
+  <si>
+    <t>Notasi</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>Infrastructure</t>
+  </si>
+  <si>
+    <t>Opportunity and Solutions</t>
+  </si>
+  <si>
+    <t>Planning Migrate</t>
+  </si>
+  <si>
+    <t>Implementation</t>
   </si>
 </sst>
 </file>
@@ -546,7 +549,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -610,16 +613,22 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -649,11 +658,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -875,8 +879,8 @@
   </sheetPr>
   <dimension ref="A3:V35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -890,7 +894,8 @@
     <col min="10" max="10" width="15.140625" customWidth="1"/>
     <col min="11" max="11" width="18.85546875" customWidth="1"/>
     <col min="12" max="12" width="12.42578125" customWidth="1"/>
-    <col min="13" max="14" width="18.85546875" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" customWidth="1"/>
+    <col min="14" max="14" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="0.42578125" customWidth="1"/>
     <col min="16" max="19" width="18.85546875" customWidth="1"/>
     <col min="20" max="20" width="0.42578125" customWidth="1"/>
@@ -899,93 +904,93 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="40"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="44"/>
     </row>
     <row r="4" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="41"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="43"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="47"/>
     </row>
     <row r="5" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="51"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="51"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="33"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="50" t="s">
+      <c r="J5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="51"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="33"/>
       <c r="O5" s="1"/>
-      <c r="P5" s="50" t="s">
+      <c r="P5" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="51"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="33"/>
       <c r="T5" s="1"/>
-      <c r="U5" s="50" t="s">
+      <c r="U5" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="V5" s="51"/>
+      <c r="V5" s="33"/>
     </row>
     <row r="6" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="34"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="2">
         <v>44641</v>
       </c>
@@ -1046,186 +1051,192 @@
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="35" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="46" t="s">
+      <c r="H7" s="50" t="s">
         <v>9</v>
       </c>
       <c r="I7" s="3"/>
-      <c r="J7" s="44" t="s">
+      <c r="J7" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="33" t="s">
+      <c r="K7" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="44" t="s">
+      <c r="L7" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="33" t="s">
+      <c r="M7" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="33" t="s">
+      <c r="N7" s="35" t="s">
         <v>8</v>
       </c>
       <c r="O7" s="3"/>
-      <c r="P7" s="33" t="s">
+      <c r="P7" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="Q7" s="33" t="s">
+      <c r="Q7" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="R7" s="33" t="s">
+      <c r="R7" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="S7" s="33" t="s">
+      <c r="S7" s="35" t="s">
         <v>8</v>
       </c>
       <c r="T7" s="3"/>
-      <c r="U7" s="47" t="s">
+      <c r="U7" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="V7" s="40"/>
+      <c r="V7" s="44"/>
     </row>
     <row r="8" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="45"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="49"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
       <c r="T8" s="3"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="49"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="53"/>
     </row>
     <row r="9" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="37" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="45"/>
+      <c r="H9" s="49"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="31" t="s">
+      <c r="J9" s="49"/>
+      <c r="K9" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="L9" s="45"/>
-      <c r="M9" s="31" t="s">
+      <c r="L9" s="49"/>
+      <c r="M9" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="N9" s="31" t="s">
+      <c r="N9" s="37" t="s">
         <v>38</v>
       </c>
       <c r="O9" s="3"/>
-      <c r="P9" s="31" t="s">
+      <c r="P9" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="Q9" s="31" t="s">
+      <c r="Q9" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="R9" s="31" t="s">
+      <c r="R9" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="S9" s="31" t="s">
+      <c r="S9" s="37" t="s">
         <v>38</v>
       </c>
       <c r="T9" s="3"/>
-      <c r="U9" s="48"/>
-      <c r="V9" s="49"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="53"/>
     </row>
     <row r="10" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="34"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="36"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="32"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="41"/>
-      <c r="V10" s="43"/>
+      <c r="U10" s="45"/>
+      <c r="V10" s="47"/>
     </row>
     <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
       <c r="F11" t="s">
         <v>47</v>
       </c>
       <c r="G11" t="s">
         <v>48</v>
       </c>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
       <c r="K11" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" t="s">
+        <v>52</v>
+      </c>
+      <c r="N11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>55</v>
+      </c>
+      <c r="R11" t="s">
         <v>49</v>
-      </c>
-      <c r="M11" t="s">
-        <v>50</v>
-      </c>
-      <c r="N11" t="s">
-        <v>51</v>
-      </c>
-      <c r="P11" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>53</v>
-      </c>
-      <c r="R11" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="48" customHeight="1" x14ac:dyDescent="0.2">
@@ -1401,17 +1412,17 @@
       <c r="B28" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
     </row>
     <row r="29" spans="1:5" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="7"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="7"/>
@@ -1443,27 +1454,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="U7:V10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="C28:E29"/>
     <mergeCell ref="A5:A6"/>
@@ -1479,6 +1469,27 @@
     <mergeCell ref="J7:J10"/>
     <mergeCell ref="L7:L10"/>
     <mergeCell ref="H7:H10"/>
+    <mergeCell ref="U7:V10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="P5:S5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
